--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B414C-6CDF-4C91-AB49-0F331ADEE094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16048D-74D1-4DB0-94BA-32144D000E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="210">
   <si>
     <t>setting_name</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Still pregnant</t>
   </si>
   <si>
-    <t>Moved before given birth</t>
-  </si>
-  <si>
     <t>Not pregnant anyway</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Não grávida de qualquer maneira</t>
   </si>
   <si>
-    <t>Modou antes do parto</t>
-  </si>
-  <si>
     <t>data("ESTADOGRAV") == "1"</t>
   </si>
   <si>
@@ -420,18 +414,12 @@
     <t>nvnmab</t>
   </si>
   <si>
-    <t>data("NVNMAB") == "1"</t>
-  </si>
-  <si>
     <t>How did the pregnancy end?</t>
   </si>
   <si>
     <t>Live birth</t>
   </si>
   <si>
-    <t>Abortion</t>
-  </si>
-  <si>
     <t>Stillbirth</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>data("NVNMAB") != null || data("ESTADOGRAV") != 1</t>
   </si>
   <si>
-    <t>data("GEM") != null || data("ESTADOGRAV") != 1</t>
-  </si>
-  <si>
     <t>If number of children born is unknown write "33"</t>
   </si>
   <si>
@@ -598,6 +583,89 @@
   </si>
   <si>
     <t>VISNO</t>
+  </si>
+  <si>
+    <t>Moved / died before given birth</t>
+  </si>
+  <si>
+    <t>Modou / faleceu antes do parto</t>
+  </si>
+  <si>
+    <t>Still birth: after 6 months of pregnancy &lt;\br&gt;
+Miscarriage: before 6 months of pregnancy</t>
+  </si>
+  <si>
+    <t>Miscarriage</t>
+  </si>
+  <si>
+    <t>Nado morto: após 6 meses de gravidez &lt;\br&gt; 
+Aborto espontâneo: antes de 6 meses de gravidez</t>
+  </si>
+  <si>
+    <t>LOCPAR</t>
+  </si>
+  <si>
+    <t>PlaceOfBirth</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Centro de Saúde</t>
+  </si>
+  <si>
+    <t>Health centre</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Place of birth</t>
+  </si>
+  <si>
+    <t>Local de nascimento</t>
+  </si>
+  <si>
+    <t>data("GEM") != null || data("ESTADOGRAV") != 1 || data("NVNNAM") == 3</t>
+  </si>
+  <si>
+    <t>data("LOCPAR") != null || data("ESTADOGRAV") != 1 || data("NVNNAM") == 3</t>
+  </si>
+  <si>
+    <t>PARTAB</t>
+  </si>
+  <si>
+    <t>PARHCHOSP</t>
+  </si>
+  <si>
+    <t>Did the woman give birth in this tabanca?</t>
+  </si>
+  <si>
+    <t>A mulher deu à luz nesta tabanca?</t>
+  </si>
+  <si>
+    <t>Did the women go directly to this tabanca after giving birth?</t>
+  </si>
+  <si>
+    <t>As mulheres foram diretamente para esta tabanca após o parto?</t>
+  </si>
+  <si>
+    <t>data("NVNMAB") == "1" &amp;&amp; (data("PARTAB") == "1" || data("PARHCHOSP") == "1")</t>
+  </si>
+  <si>
+    <t>data("PARTAB") != null || data("LOCPAR") != 1</t>
+  </si>
+  <si>
+    <t>data("PARTAB") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>data("LOCPAR") == "1"</t>
+  </si>
+  <si>
+    <t>data("LOCPAR") == "2" || data("LOCPAR") == "3"</t>
   </si>
 </sst>
 </file>
@@ -707,7 +775,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -723,8 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -742,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1067,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,32 +1204,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="41" style="15" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="41" style="13" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="40.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,7 +1251,7 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1220,38 +1289,38 @@
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>181</v>
+      <c r="G3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>149</v>
+      <c r="G4" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1259,10 +1328,10 @@
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1270,10 +1339,10 @@
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1281,10 +1350,10 @@
       <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1295,10 +1364,10 @@
       <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="22" t="s">
         <v>86</v>
       </c>
       <c r="J9" s="12" t="b">
@@ -1310,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1324,10 +1393,10 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J11" s="12" t="b">
         <v>1</v>
@@ -1337,49 +1406,49 @@
       <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>183</v>
+      <c r="G14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="15" t="b">
+      <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="P15" s="15" t="b">
+      <c r="K15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1387,19 +1456,19 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>183</v>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1407,16 +1476,16 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1427,9 +1496,9 @@
         <v>71</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
@@ -1438,14 +1507,14 @@
       <c r="F21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>137</v>
+      <c r="G21" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1455,37 +1524,37 @@
       <c r="B22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>183</v>
+      <c r="G26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1499,13 +1568,13 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1524,290 +1593,403 @@
       </c>
     </row>
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="13"/>
+      <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>183</v>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>117</v>
+      <c r="E32" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="15" t="b">
+      <c r="J32" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="C34" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D36" s="16" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="16" t="s">
+      <c r="G36" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>176</v>
+      <c r="G37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="K37" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L54" t="s">
+        <v>165</v>
+      </c>
+      <c r="M54" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C58" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D60" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="H60" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D61" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="16" t="s">
+    </row>
+    <row r="66" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" t="s">
-        <v>174</v>
-      </c>
-      <c r="L44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M44" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" t="s">
-        <v>172</v>
-      </c>
-      <c r="O44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D50" s="16" t="s">
+      <c r="G66" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D51" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="G68" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1839,54 +2021,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="27" t="s">
         <v>160</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1899,8 +2081,8 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +2109,7 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -1942,7 +2124,7 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
@@ -1957,7 +2139,7 @@
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
@@ -1972,7 +2154,7 @@
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
@@ -1987,7 +2169,7 @@
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
@@ -2007,217 +2189,262 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="15" t="str">
+      <c r="A12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>108</v>
+      <c r="D12" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="15" t="str">
+      <c r="A13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>109</v>
+      <c r="D13" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="15" t="str">
+      <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>111</v>
+      <c r="C14" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="15" t="str">
+      <c r="A15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>110</v>
+      <c r="C15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="15" t="str">
+      <c r="A16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="15" t="str">
+      <c r="A18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="15" t="str">
+      <c r="A19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>135</v>
+      <c r="C19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="15" t="str">
+      <c r="A20" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
@@ -2226,101 +2453,101 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
@@ -2329,448 +2556,448 @@
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="16"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="16"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="16"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="16"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="16"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="16"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="16"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="16"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="16"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="16"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="16"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="16"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="16"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="16"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="16"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="16"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="16"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="16"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="16"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="16"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="16"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="16"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="16"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
@@ -2880,10 +3107,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,11 +3175,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3306,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -3145,7 +3372,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
@@ -3175,10 +3402,10 @@
       <c r="C22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3187,11 +3414,11 @@
       <c r="C23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>87</v>
+      <c r="A24" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -3199,19 +3426,54 @@
       <c r="C24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>90</v>
+      <c r="A25" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16048D-74D1-4DB0-94BA-32144D000E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE0922-6765-44A5-9C3E-92253F6505CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
@@ -3177,9 +3177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,6 +3476,9 @@
       <c r="D28" s="13"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G19">
+    <sortCondition ref="G3:G19"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE0922-6765-44A5-9C3E-92253F6505CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B7D5F-AB5B-472C-9F73-AC0495070A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="221">
   <si>
     <t>setting_name</t>
   </si>
@@ -258,9 +258,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>Health centre area: {{data.HCNOME}}</t>
-  </si>
-  <si>
     <t>HCAREANOME</t>
   </si>
   <si>
@@ -273,24 +270,6 @@
     <t>REGNOME</t>
   </si>
   <si>
-    <t>Region: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Subarea: {{data.SUBAREANOME}}</t>
-  </si>
-  <si>
-    <t>Village: {{data.TABNOME}}</t>
-  </si>
-  <si>
-    <t>Região: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Área sanitárias: {{data.HCNOME}}</t>
-  </si>
-  <si>
-    <t>Tabanca: {{data.TABNOME}}</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -393,9 +372,6 @@
     <t>A mulher tem uma cicatriz da vacina BCG?</t>
   </si>
   <si>
-    <t>data("ESTADOMUL") == "1" &amp;&amp; data("CICATRIZMAE") == null</t>
-  </si>
-  <si>
     <t>Did the woman give birth to twins?</t>
   </si>
   <si>
@@ -514,9 +490,6 @@
   </si>
   <si>
     <t>[data('NUMEST')]</t>
-  </si>
-  <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), NUMEST: data("NUMEST"), REGDIA: data("REGDIA"), NOME: data("NOME"), DATASEG: data("DATASEG")}</t>
   </si>
   <si>
     <t>List of children born from this pregnancy</t>
@@ -666,6 +639,66 @@
   </si>
   <si>
     <t>data("LOCPAR") == "2" || data("LOCPAR") == "3"</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>GRAV</t>
+  </si>
+  <si>
+    <t>From tables</t>
+  </si>
+  <si>
+    <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CICATRIZMAE") == null || data("cicatrizmae") == null)</t>
+  </si>
+  <si>
+    <t>cicatrizmae</t>
+  </si>
+  <si>
+    <t>Inclusion</t>
+  </si>
+  <si>
+    <t>CHWREG</t>
+  </si>
+  <si>
+    <t>IDADE</t>
+  </si>
+  <si>
+    <t>ESCO</t>
+  </si>
+  <si>
+    <t>PARITY</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), NUMEST: data("NUMEST"), REGDIA: data("REGDIA"), NOME: data("NOME"), DATASEG: data("DATASEG"), REGDIACRI: data("DATASEG"), VISNO: "1", NUMESTCRI: data("NUMEST") + "01"}</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -805,12 +838,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1096,14 +1129,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -1136,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,10 +1194,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,8 +1223,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:G24">
@@ -1207,8 +1244,8 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,10 +1333,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1307,54 +1344,54 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>82</v>
+      <c r="G5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>83</v>
+      <c r="G6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>80</v>
+      <c r="G7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>84</v>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1365,10 +1402,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J9" s="12" t="b">
         <v>1</v>
@@ -1379,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1393,10 +1430,10 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J11" s="12" t="b">
         <v>1</v>
@@ -1418,10 +1455,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1429,19 +1466,19 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P15" s="13" t="b">
         <v>0</v>
@@ -1465,10 +1502,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1476,16 +1513,16 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1496,7 +1533,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -1505,16 +1542,16 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1537,7 +1574,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1551,10 +1588,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1568,13 +1605,13 @@
         <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1600,10 +1637,10 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -1611,16 +1648,16 @@
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J32" s="13" t="b">
         <v>1</v>
@@ -1636,7 +1673,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1649,36 +1686,36 @@
         <v>35</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s">
-        <v>164</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="M37" s="26" t="s">
-        <v>187</v>
+        <v>155</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -1691,7 +1728,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -1704,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1715,19 +1752,19 @@
         <v>55</v>
       </c>
       <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" t="s">
         <v>189</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K42" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -1735,7 +1772,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1746,16 +1783,16 @@
         <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -1768,7 +1805,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -1779,16 +1816,16 @@
         <v>57</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -1812,10 +1849,10 @@
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,25 +1863,25 @@
         <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
@@ -1852,28 +1889,28 @@
         <v>49</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M54" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="N54" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O54" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -1896,7 +1933,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -1909,30 +1946,30 @@
         <v>35</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D61" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -1960,10 +1997,10 @@
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1971,10 +2008,10 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1982,10 +2019,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H68" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,54 +2058,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2146,7 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2124,7 +2161,7 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
@@ -2139,7 +2176,7 @@
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
@@ -2154,32 +2191,32 @@
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2241,67 +2278,67 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B14" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"33"</f>
@@ -2322,52 +2359,52 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B20" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B21" s="12" t="str">
         <f>"33"</f>
@@ -2388,52 +2425,52 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B24" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B25" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B26" t="str">
         <f>"33"</f>
@@ -3107,10 +3144,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,11 +3212,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,278 +3243,406 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="b">
+      <c r="C2" t="b">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="b">
+      <c r="C3" t="b">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="b">
+      <c r="C4" t="b">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="b">
+      <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="b">
+      <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="3" t="b">
+      <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3" t="b">
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3" t="b">
+      <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="b">
+      <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="b">
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="3" t="b">
+      <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="b">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="3" t="b">
+      <c r="C21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="b">
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="b">
+      <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="3" t="b">
+      <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="b">
+      <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G19">
-    <sortCondition ref="G3:G19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G21">
+    <sortCondition ref="G3:G21"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B7D5F-AB5B-472C-9F73-AC0495070A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D728E-F33D-466B-A8EB-BBA8F053910F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -632,9 +632,6 @@
     <t>data("PARTAB") != null || data("LOCPAR") != 1</t>
   </si>
   <si>
-    <t>data("PARTAB") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
-  </si>
-  <si>
     <t>data("LOCPAR") == "1"</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>data("PARHCHOSP") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -1243,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,10 +1355,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
         <v>201</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
         <v>203</v>
-      </c>
-      <c r="H6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,10 +1377,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1388,10 +1388,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" t="s">
         <v>207</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
         <v>195</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>151</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>148</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3351,12 +3351,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D728E-F33D-466B-A8EB-BBA8F053910F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB9D02-6C91-4819-950C-0DE7224F10A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="250">
   <si>
     <t>setting_name</t>
   </si>
@@ -192,12 +192,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>NUMEST</t>
-  </si>
-  <si>
-    <t>CICATRIZMAE</t>
-  </si>
-  <si>
     <t>CONSENT</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>NVNMAB</t>
   </si>
   <si>
-    <t>DATASAI</t>
-  </si>
-  <si>
     <t>GEMNUM</t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t>Name of woman</t>
   </si>
   <si>
-    <t>Nome de mulher</t>
-  </si>
-  <si>
     <t>You are about to conduct a follow-up interview at:</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
     <t>Lista de crianças nascidas desta gravidez</t>
   </si>
   <si>
-    <t>data("CICATRIZMAE") != null || data("ESTADOMUL") != 1</t>
-  </si>
-  <si>
     <t>data("NVNMAB") != null || data("ESTADOGRAV") != 1</t>
   </si>
   <si>
@@ -540,22 +525,10 @@
     <t>&lt;b&gt;Seguimento de gravidez registrada&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>PREGNANCYFU</t>
   </si>
   <si>
     <t>not(adate.hasUncertainty(data("DATASEG"))) &amp;&amp; data("DATASEG") != null &amp;&amp; adate.ageInYears(data("DATASEG")) != -9999 &amp;&amp; adate.ageInYears(data("DATASEG")) &lt; 2019</t>
-  </si>
-  <si>
-    <t>(data("ESTADOMUL") != 2 &amp;&amp; data("ESTADOMUL") != 3) || ((data("ESTADOMUL") == 2 || data("ESTADOMUL") == 3) &amp;&amp; data("DATASAI") != null &amp;&amp; adate.ageInYears(data("DATASAI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAI")) &lt; 2019)</t>
-  </si>
-  <si>
-    <t>VISNO</t>
   </si>
   <si>
     <t>Moved / died before given birth</t>
@@ -668,12 +641,6 @@
     <t>From tables</t>
   </si>
   <si>
-    <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CICATRIZMAE") == null || data("cicatrizmae") == null)</t>
-  </si>
-  <si>
-    <t>cicatrizmae</t>
-  </si>
-  <si>
     <t>Inclusion</t>
   </si>
   <si>
@@ -692,13 +659,133 @@
     <t>FU</t>
   </si>
   <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), NUMEST: data("NUMEST"), REGDIA: data("REGDIA"), NOME: data("NOME"), DATASEG: data("DATASEG"), REGDIACRI: data("DATASEG"), VISNO: "1", NUMESTCRI: data("NUMEST") + "01"}</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
     <t>data("PARHCHOSP") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>CONSENTOU</t>
+  </si>
+  <si>
+    <t>Explanation of the study:</t>
+  </si>
+  <si>
+    <t>Explicação do estudo:</t>
+  </si>
+  <si>
+    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow your pregnancy until the moment of delivery and your child within the first months.</t>
+  </si>
+  <si>
+    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez até o momento do parto e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
+  </si>
+  <si>
+    <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
+  </si>
+  <si>
+    <t>All information collected here will be used for the study only and will be kept confidential.</t>
+  </si>
+  <si>
+    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas em sigilo.</t>
+  </si>
+  <si>
+    <t>If you do not want to participate, you and your child will continue to be treated in the same way as others who have accepted.</t>
+  </si>
+  <si>
+    <t>Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram.</t>
+  </si>
+  <si>
+    <t>If you accept now and later do not want to continue, you can withdraw your consent.</t>
+  </si>
+  <si>
+    <t>Se você aceitar agora e depois não quiser continuar, pode retirar seu consentimento.</t>
+  </si>
+  <si>
+    <t>If you have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
+  </si>
+  <si>
+    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 96016462/955946796</t>
+  </si>
+  <si>
+    <t>Do you have any questions now?</t>
+  </si>
+  <si>
+    <t>Você tem alguma pergunta agora?</t>
+  </si>
+  <si>
+    <t>YesNo</t>
+  </si>
+  <si>
+    <t>Do you accept that you and your future child will participate?</t>
+  </si>
+  <si>
+    <t>Você aceita que você e seu futuro filho participem?</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONSENT") != "2" </t>
+  </si>
+  <si>
+    <t>data("ESTADOGRAV") != null || data("CONSENT") == 2</t>
+  </si>
+  <si>
+    <t>data("CONSENT") !=null || data("ESTADOMUL") != 1</t>
+  </si>
+  <si>
+    <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CONSENT") != "1" || data("consent") != "1")</t>
+  </si>
+  <si>
+    <t>IDMUL</t>
+  </si>
+  <si>
+    <t>VISNOMUL</t>
+  </si>
+  <si>
+    <t>DATASAIMUL</t>
+  </si>
+  <si>
+    <t>NOMEMUL</t>
+  </si>
+  <si>
+    <t>CICATRIZMUL</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL")}</t>
+  </si>
+  <si>
+    <t>cicatrizmul</t>
+  </si>
+  <si>
+    <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CICATRIZMUL") == null || data("cicatrizmul") == null)</t>
+  </si>
+  <si>
+    <t>NOMEMULMUL</t>
+  </si>
+  <si>
+    <t>NOMEMUL de mulher</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1</t>
+  </si>
+  <si>
+    <t>(data("ESTADOMUL") != 2 &amp;&amp; data("ESTADOMUL") != 3) || ((data("ESTADOMUL") == 2 || data("ESTADOMUL") == 3) &amp;&amp; data("DATASAIMUL") != null &amp;&amp; adate.ageInYears(data("DATASAIMUL")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAIMUL")) &lt; 2019)</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,10 +1281,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,7 +1311,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -1241,11 +1328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
@@ -1333,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1344,10 +1431,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1355,10 +1442,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,10 +1453,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1388,24 +1475,24 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" s="12" t="b">
         <v>1</v>
@@ -1416,24 +1503,24 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="J11" s="12" t="b">
         <v>1</v>
@@ -1455,10 +1542,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1466,19 +1553,19 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P15" s="13" t="b">
         <v>0</v>
@@ -1502,27 +1589,27 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1530,10 +1617,10 @@
     </row>
     <row r="20" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -1542,16 +1629,16 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1559,7 +1646,7 @@
     </row>
     <row r="22" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -1571,10 +1658,10 @@
     </row>
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1588,30 +1675,30 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1621,412 +1708,588 @@
     </row>
     <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>216</v>
+      </c>
+      <c r="H35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>220</v>
+      </c>
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="43" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="14" t="s">
+    <row r="46" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="D46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K37" t="s">
-        <v>155</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D44" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="K44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D47" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="H51" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s">
+        <v>150</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M52" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
         <v>55</v>
       </c>
-      <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="F59" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D62" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D66" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G69" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="H69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K69" t="s">
+        <v>155</v>
+      </c>
+      <c r="L69" t="s">
+        <v>151</v>
+      </c>
+      <c r="M69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N69" t="s">
+        <v>153</v>
+      </c>
+      <c r="O69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D75" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D76" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M76" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L54" t="s">
-        <v>156</v>
-      </c>
-      <c r="M54" t="s">
-        <v>157</v>
-      </c>
-      <c r="N54" t="s">
-        <v>158</v>
-      </c>
-      <c r="O54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="14" t="s">
+    <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+      <c r="G82" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>35</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" t="s">
         <v>126</v>
       </c>
-      <c r="H67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    </row>
+    <row r="85" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2042,7 +2305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,54 +2321,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2115,11 +2378,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,77 +2409,77 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2227,47 +2490,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,340 +2541,358 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="13" t="str">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="13" t="str">
+      <c r="C17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="13" t="str">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="13" t="str">
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="13" t="str">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="13" t="str">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="12" t="str">
+      <c r="C23" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" t="str">
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2629,7 +2910,7 @@
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2648,33 +2929,33 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
@@ -2792,50 +3073,50 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="19"/>
-      <c r="C81" s="21"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="19"/>
-      <c r="C82" s="21"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="19"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="19"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="19"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,7 +3134,7 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="19"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,19 +3157,19 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="15"/>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
     </row>
@@ -2900,13 +3181,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
-      <c r="B97" s="19"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
     </row>
@@ -2918,7 +3199,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
     </row>
@@ -2942,13 +3223,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="15"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="15"/>
       <c r="D104" s="14"/>
     </row>
@@ -2966,13 +3247,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="15"/>
       <c r="D108" s="14"/>
     </row>
@@ -2985,12 +3266,12 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="15"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="15"/>
       <c r="D111" s="14"/>
     </row>
@@ -3002,7 +3283,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="15"/>
       <c r="D113" s="14"/>
     </row>
@@ -3020,42 +3301,45 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
-      <c r="C117" s="14"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="14"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
-      <c r="C121"/>
-      <c r="D121"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
-      <c r="C122"/>
-      <c r="D122"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
-      <c r="C123"/>
-      <c r="D123"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
@@ -3111,6 +3395,21 @@
       <c r="B134" s="7"/>
       <c r="C134"/>
       <c r="D134"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135"/>
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+      <c r="C136"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="7"/>
+      <c r="C137"/>
+      <c r="D137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3144,10 +3443,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,11 +3511,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,22 +3552,20 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3280,23 +3577,19 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>209</v>
-      </c>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3308,23 +3601,19 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>209</v>
-      </c>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>209</v>
-      </c>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3336,27 +3625,23 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>209</v>
-      </c>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>209</v>
-      </c>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3364,27 +3649,22 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>209</v>
-      </c>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3392,9 +3672,7 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>209</v>
-      </c>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
@@ -3407,13 +3685,13 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,7 +3699,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3430,10 +3708,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3442,10 +3720,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3454,10 +3732,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3466,10 +3744,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3478,10 +3756,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3490,10 +3768,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3502,10 +3780,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3514,10 +3792,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3525,31 +3803,35 @@
       <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>217</v>
-      </c>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3558,10 +3840,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3569,35 +3851,31 @@
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3606,10 +3884,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3618,10 +3896,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3630,15 +3908,75 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D33"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G21">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB9D02-6C91-4819-950C-0DE7224F10A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0BD3D-61D6-473A-934A-AC1A8046CD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
   <si>
     <t>setting_name</t>
   </si>
@@ -189,9 +189,6 @@
     <t>MOR</t>
   </si>
   <si>
-    <t>NOME</t>
-  </si>
-  <si>
     <t>CONSENT</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
     <t>Name of woman</t>
   </si>
   <si>
+    <t>Nome de mulher</t>
+  </si>
+  <si>
     <t>You are about to conduct a follow-up interview at:</t>
   </si>
   <si>
@@ -472,12 +472,6 @@
   </si>
   <si>
     <t>CHILDREN</t>
-  </si>
-  <si>
-    <t>NUMEST = ?</t>
-  </si>
-  <si>
-    <t>[data('NUMEST')]</t>
   </si>
   <si>
     <t>List of children born from this pregnancy</t>
@@ -770,12 +764,6 @@
     <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CICATRIZMUL") == null || data("cicatrizmul") == null)</t>
   </si>
   <si>
-    <t>NOMEMULMUL</t>
-  </si>
-  <si>
-    <t>NOMEMUL de mulher</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -786,6 +774,12 @@
   </si>
   <si>
     <t>(data("ESTADOMUL") != 2 &amp;&amp; data("ESTADOMUL") != 3) || ((data("ESTADOMUL") == 2 || data("ESTADOMUL") == 3) &amp;&amp; data("DATASAIMUL") != null &amp;&amp; adate.ageInYears(data("DATASAIMUL")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAIMUL")) &lt; 2019)</t>
+  </si>
+  <si>
+    <t>IDMUL = ?</t>
+  </si>
+  <si>
+    <t>[data('IDMUL')]</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,10 +1275,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,10 +1305,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1330,9 +1324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
@@ -1420,10 +1414,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1442,10 +1436,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1453,10 +1447,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1464,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1475,24 +1469,24 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="J9" s="12" t="b">
         <v>1</v>
@@ -1503,24 +1497,24 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
         <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
         <v>131</v>
-      </c>
-      <c r="H11" t="s">
-        <v>245</v>
       </c>
       <c r="J11" s="12" t="b">
         <v>1</v>
@@ -1542,10 +1536,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1553,19 +1547,19 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P15" s="13" t="b">
         <v>0</v>
@@ -1589,27 +1583,27 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
         <v>101</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1617,10 +1611,10 @@
     </row>
     <row r="20" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -1629,16 +1623,16 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="22" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -1658,10 +1652,10 @@
     </row>
     <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1675,30 +1669,30 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" t="s">
         <v>107</v>
       </c>
-      <c r="H27" t="s">
-        <v>108</v>
-      </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1708,15 +1702,15 @@
     </row>
     <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1734,10 +1728,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1747,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1760,10 +1754,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1773,10 +1767,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1786,10 +1780,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1799,10 +1793,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1812,10 +1806,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1825,10 +1819,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1838,30 +1832,30 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" t="s">
         <v>228</v>
       </c>
-      <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>229</v>
-      </c>
-      <c r="H41" t="s">
-        <v>230</v>
-      </c>
       <c r="K41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1871,15 +1865,15 @@
     </row>
     <row r="43" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1895,30 +1889,30 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="K47" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1928,10 +1922,10 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -1944,36 +1938,36 @@
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D52" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>115</v>
-      </c>
       <c r="H52" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L52" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M52" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -1983,10 +1977,10 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -1999,96 +1993,96 @@
         <v>35</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H57" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K57" t="s">
         <v>178</v>
-      </c>
-      <c r="K57" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>183</v>
-      </c>
       <c r="H59" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -2107,39 +2101,39 @@
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" t="s">
         <v>109</v>
-      </c>
-      <c r="H67" t="s">
-        <v>110</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
@@ -2147,33 +2141,33 @@
         <v>49</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L69" t="s">
+        <v>149</v>
+      </c>
+      <c r="M69" t="s">
+        <v>150</v>
+      </c>
+      <c r="N69" t="s">
         <v>151</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O69" t="s">
         <v>152</v>
-      </c>
-      <c r="N69" t="s">
-        <v>153</v>
-      </c>
-      <c r="O69" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
@@ -2183,15 +2177,15 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
@@ -2204,10 +2198,10 @@
         <v>35</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
@@ -2218,16 +2212,16 @@
         <v>135</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
@@ -2237,17 +2231,17 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2260,10 +2254,10 @@
         <v>35</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2271,10 +2265,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
+        <v>122</v>
+      </c>
+      <c r="H83" t="s">
         <v>123</v>
-      </c>
-      <c r="H83" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2282,10 +2276,10 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" t="s">
         <v>125</v>
-      </c>
-      <c r="H84" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="85" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2303,9 +2297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D054B58-2EEB-4F35-83A7-A789873676A2}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,13 +2353,13 @@
         <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>144</v>
@@ -2409,77 +2403,77 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2490,47 +2484,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,32 +2535,32 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,77 +2571,77 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,62 +2652,62 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2724,62 +2718,62 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3443,10 +3437,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,15 +3546,15 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3581,10 +3575,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3605,10 +3599,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3629,10 +3623,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3641,7 +3635,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3653,10 +3647,10 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3664,7 +3658,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3685,18 +3679,18 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -3708,10 +3702,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3720,10 +3714,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3732,10 +3726,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3744,7 +3738,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -3756,10 +3750,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3768,10 +3762,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3780,10 +3774,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3792,10 +3786,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3804,7 +3798,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -3816,10 +3810,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3828,7 +3822,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -3840,10 +3834,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3858,7 +3852,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3867,15 +3861,15 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3884,10 +3878,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3896,10 +3890,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3908,10 +3902,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3920,10 +3914,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3932,10 +3926,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -3956,7 +3950,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -3968,7 +3962,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B0BD3D-61D6-473A-934A-AC1A8046CD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE18EAA-F469-4B0A-A5B8-DA0113301858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="12" r:id="rId2"/>
-    <sheet name="queries" sheetId="13" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="choices" sheetId="3" r:id="rId3"/>
+    <sheet name="queries" sheetId="13" r:id="rId4"/>
     <sheet name="calculates" sheetId="7" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
     <sheet name="model" sheetId="4" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="238">
   <si>
     <t>setting_name</t>
   </si>
@@ -273,9 +273,6 @@
     <t>NVNMAB</t>
   </si>
   <si>
-    <t>GEMNUM</t>
-  </si>
-  <si>
     <t>DATASEG</t>
   </si>
   <si>
@@ -366,15 +363,6 @@
     <t>A mulher deu à luz gêmeos?</t>
   </si>
   <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>data("GEM") == "1"</t>
-  </si>
-  <si>
-    <t>How many did she give birth to?</t>
-  </si>
-  <si>
     <t>nvnmab</t>
   </si>
   <si>
@@ -481,24 +469,6 @@
   </si>
   <si>
     <t>data("NVNMAB") != null || data("ESTADOGRAV") != 1</t>
-  </si>
-  <si>
-    <t>If number of children born is unknown write "33"</t>
-  </si>
-  <si>
-    <t>Se o número de crianças nascidas for desconhecido, escreva "33"</t>
-  </si>
-  <si>
-    <t>Must be between 1 and 5. If unknown 33.</t>
-  </si>
-  <si>
-    <t>Deve estar entre 1 e 5. Se desconhecido, 33.</t>
-  </si>
-  <si>
-    <t>((data("GEMNUM") &gt; 0 &amp;&amp; data("GEMNUM") &lt;6) || data("GEMNUM") ==33) || data("GEM") != 1</t>
-  </si>
-  <si>
-    <t>A quantos ela deu à luz?</t>
   </si>
   <si>
     <t>Como terminou a gravidez?</t>
@@ -755,9 +725,6 @@
     <t>CICATRIZMUL</t>
   </si>
   <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL")}</t>
-  </si>
-  <si>
     <t>cicatrizmul</t>
   </si>
   <si>
@@ -780,6 +747,9 @@
   </si>
   <si>
     <t>[data('IDMUL')]</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1245,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,10 +1275,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1322,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1425,10 +1395,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,10 +1406,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1447,10 +1417,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1458,10 +1428,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1469,10 +1439,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1497,10 +1467,10 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1508,13 +1478,13 @@
         <v>61</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J11" s="12" t="b">
         <v>1</v>
@@ -1536,10 +1506,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1547,19 +1517,19 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P15" s="13" t="b">
         <v>0</v>
@@ -1583,10 +1553,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1594,16 +1564,16 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
         <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1614,7 +1584,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -1623,16 +1593,16 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1655,7 +1625,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1669,10 +1639,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1683,16 +1653,16 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
         <v>106</v>
       </c>
-      <c r="H27" t="s">
-        <v>107</v>
-      </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1710,7 +1680,7 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1728,10 +1698,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1741,10 +1711,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1754,10 +1724,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1767,10 +1737,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1780,10 +1750,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,10 +1763,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1806,10 +1776,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1819,10 +1789,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1832,10 +1802,10 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H40" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1843,19 +1813,19 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1843,7 @@
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1889,10 +1859,10 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -1900,19 +1870,19 @@
         <v>52</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="K47" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1925,7 +1895,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -1938,10 +1908,10 @@
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -1949,25 +1919,25 @@
         <v>52</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H52" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="K52" t="s">
-        <v>148</v>
-      </c>
-      <c r="L52" s="25" t="s">
-        <v>165</v>
-      </c>
       <c r="M52" s="25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -1980,7 +1950,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -1993,10 +1963,10 @@
         <v>35</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -2004,19 +1974,19 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" t="s">
         <v>168</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K57" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -2024,7 +1994,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -2035,16 +2005,16 @@
         <v>54</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -2057,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -2068,16 +2038,16 @@
         <v>54</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -2090,24 +2060,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>52</v>
       </c>
@@ -2118,172 +2088,130 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" t="s">
         <v>108</v>
-      </c>
-      <c r="H67" t="s">
-        <v>109</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="K69" t="s">
-        <v>153</v>
-      </c>
-      <c r="L69" t="s">
-        <v>149</v>
-      </c>
-      <c r="M69" t="s">
-        <v>150</v>
-      </c>
-      <c r="N69" t="s">
-        <v>151</v>
-      </c>
-      <c r="O69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D75" s="14" t="s">
+    <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D76" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="13" t="s">
-        <v>69</v>
+      <c r="G79" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
+      <c r="H80" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>37</v>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H81" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>122</v>
-      </c>
-      <c r="H83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s">
-        <v>124</v>
-      </c>
-      <c r="H84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2294,83 +2222,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D054B58-2EEB-4F35-83A7-A789873676A2}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
@@ -2403,7 +2254,7 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2418,7 +2269,7 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
@@ -2433,7 +2284,7 @@
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
@@ -2448,32 +2299,32 @@
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2535,7 +2386,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
@@ -2550,7 +2401,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
@@ -2571,67 +2422,67 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"33"</f>
@@ -2652,52 +2503,52 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>"33"</f>
@@ -2718,52 +2569,52 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
@@ -3409,6 +3260,83 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D054B58-2EEB-4F35-83A7-A789873676A2}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3437,10 +3365,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,11 +3433,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,7 +3563,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3647,7 +3575,7 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -3658,7 +3586,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3685,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,7 +3630,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -3714,7 +3642,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -3726,7 +3654,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -3738,7 +3666,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -3762,7 +3690,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -3774,7 +3702,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -3786,7 +3714,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -3798,7 +3726,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -3810,7 +3738,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -3822,7 +3750,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -3834,7 +3762,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -3852,7 +3780,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3861,12 +3789,12 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -3890,7 +3818,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -3902,7 +3830,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -3914,7 +3842,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -3938,19 +3866,19 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -3959,18 +3887,6 @@
         <v>1</v>
       </c>
       <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G21">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE18EAA-F469-4B0A-A5B8-DA0113301858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B91DA-67DC-4D1C-AE50-CDBC6611E946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
   <si>
     <t>setting_name</t>
   </si>
@@ -501,17 +501,9 @@
     <t>Modou / faleceu antes do parto</t>
   </si>
   <si>
-    <t>Still birth: after 6 months of pregnancy &lt;\br&gt;
-Miscarriage: before 6 months of pregnancy</t>
-  </si>
-  <si>
     <t>Miscarriage</t>
   </si>
   <si>
-    <t>Nado morto: após 6 meses de gravidez &lt;\br&gt; 
-Aborto espontâneo: antes de 6 meses de gravidez</t>
-  </si>
-  <si>
     <t>LOCPAR</t>
   </si>
   <si>
@@ -750,6 +742,27 @@
   </si>
   <si>
     <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
+  </si>
+  <si>
+    <t>Remember to give the women the description</t>
+  </si>
+  <si>
+    <t>Lembre-se de dar a descrição às mulheres</t>
+  </si>
+  <si>
+    <t>Nado morto: após 6 meses de gravidez &lt;/br&gt; Aborto espontâneo: antes de 6 meses de gravidez</t>
+  </si>
+  <si>
+    <t>Still birth: after 6 months of pregnancy &lt;/br&gt; Miscarriage: before 6 months of pregnancy</t>
+  </si>
+  <si>
+    <t>OBSMUL</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; If you have any comment or observations about the woman, write them here &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1288,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1292,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,10 +1419,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1417,10 +1430,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1428,10 +1441,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1439,10 +1452,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1478,7 +1491,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
         <v>126</v>
@@ -1506,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1553,10 +1566,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1593,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>117</v>
@@ -1602,7 +1615,7 @@
         <v>116</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1625,7 +1638,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1639,10 +1652,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1653,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>105</v>
@@ -1662,7 +1675,7 @@
         <v>106</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1693,7 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,160 +1711,166 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" t="s">
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" t="s">
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" t="s">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" t="s">
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" t="s">
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="L41" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="D46" s="14" t="s">
         <v>35</v>
@@ -1859,13 +1878,13 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
         <v>52</v>
       </c>
@@ -1882,10 +1901,10 @@
         <v>90</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>38</v>
       </c>
@@ -1908,10 +1927,10 @@
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -1934,10 +1953,10 @@
         <v>144</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="M52" s="25" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -1963,10 +1982,10 @@
         <v>35</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -1974,19 +1993,19 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H57" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K57" t="s">
         <v>166</v>
-      </c>
-      <c r="K57" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -1994,7 +2013,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -2005,16 +2024,16 @@
         <v>54</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="H59" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -2027,7 +2046,7 @@
         <v>68</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -2038,16 +2057,16 @@
         <v>54</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -2071,10 +2090,10 @@
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2095,7 +2114,7 @@
       </c>
       <c r="J67" s="13"/>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -2113,7 +2132,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -2126,10 +2145,10 @@
         <v>35</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -2182,10 +2201,10 @@
         <v>35</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2230,21 @@
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="D82" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" t="s">
+        <v>241</v>
+      </c>
+      <c r="H82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2386,7 +2419,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
@@ -2401,7 +2434,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
@@ -2540,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>113</v>
@@ -2569,52 +2602,52 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
@@ -3323,13 +3356,13 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>140</v>
@@ -3474,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,7 +3596,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3575,7 +3608,7 @@
     </row>
     <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -3586,7 +3619,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -3613,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3663,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -3642,7 +3675,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -3690,7 +3723,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -3702,7 +3735,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -3714,7 +3747,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -3726,7 +3759,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -3738,7 +3771,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -3750,7 +3783,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -3762,7 +3795,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -3780,7 +3813,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -3789,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,7 +3851,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -3830,7 +3863,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -3842,7 +3875,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -3866,7 +3899,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -3878,7 +3911,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B91DA-67DC-4D1C-AE50-CDBC6611E946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A1667-76C7-4849-8D1D-92E511F3136E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
   <si>
     <t>setting_name</t>
   </si>
@@ -177,9 +177,6 @@
     <t>HCAREA</t>
   </si>
   <si>
-    <t>SUBAREA</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>HCAREANOME</t>
   </si>
   <si>
-    <t>SUBAREANOME</t>
-  </si>
-  <si>
     <t>TABNOME</t>
   </si>
   <si>
@@ -579,12 +573,6 @@
     <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -723,33 +711,15 @@
     <t>data("ESTADOMUL") == "1" &amp;&amp; (data("CICATRIZMUL") == null || data("cicatrizmul") == null)</t>
   </si>
   <si>
-    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>data("CICATRIZMUL") != null || data("ESTADOMUL") != 1</t>
   </si>
   <si>
-    <t>(data("ESTADOMUL") != 2 &amp;&amp; data("ESTADOMUL") != 3) || ((data("ESTADOMUL") == 2 || data("ESTADOMUL") == 3) &amp;&amp; data("DATASAIMUL") != null &amp;&amp; adate.ageInYears(data("DATASAIMUL")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAIMUL")) &lt; 2019)</t>
-  </si>
-  <si>
     <t>IDMUL = ?</t>
   </si>
   <si>
     <t>[data('IDMUL')]</t>
   </si>
   <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), SUBAREA: data("SUBAREA"), SUBAREANOME: data("SUBAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
-  </si>
-  <si>
-    <t>Remember to give the women the description</t>
-  </si>
-  <si>
-    <t>Lembre-se de dar a descrição às mulheres</t>
-  </si>
-  <si>
     <t>Nado morto: após 6 meses de gravidez &lt;/br&gt; Aborto espontâneo: antes de 6 meses de gravidez</t>
   </si>
   <si>
@@ -763,6 +733,36 @@
   </si>
   <si>
     <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Remember to leave a description at someone in the house</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição em alguém da casa</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}} &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Date is after today:</t>
+  </si>
+  <si>
+    <t>A data é depois de hoje:</t>
+  </si>
+  <si>
+    <t>((adate.diffInDays(data("DATASAIMUL"),data("DATASEG")) &gt;= 0 || adate.dayUnknown(data("DATASAIMUL"))) &amp;&amp; data("DATASAIMUL") != null &amp;&amp; adate.ageInYears(data("DATASAIMUL")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAIMUL")) &lt; 2019) || (data("ESTADOMUL") != 2 &amp;&amp; data("ESTADOMUL") != 3)</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>scar_mul.jpg</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,19 +833,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -907,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1233,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1259,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,10 +1289,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1305,11 +1306,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1331,12 @@
     <col min="14" max="14" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="13"/>
+    <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
@@ -1385,99 +1388,105 @@
       <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
@@ -1485,236 +1494,244 @@
       <c r="H10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="J10" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s">
+        <v>237</v>
+      </c>
+      <c r="O20" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
         <v>225</v>
       </c>
-      <c r="G11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="R26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+    </row>
+    <row r="28" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="P21" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>230</v>
+      <c r="G32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1724,10 +1741,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1737,10 +1754,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1750,10 +1767,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1763,10 +1780,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1776,10 +1793,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1789,10 +1806,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1802,409 +1819,407 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
         <v>210</v>
       </c>
-      <c r="H39" t="s">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>212</v>
       </c>
-      <c r="H40" t="s">
-        <v>213</v>
+      <c r="K40" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" t="s">
-        <v>216</v>
-      </c>
-      <c r="K41" t="s">
-        <v>220</v>
-      </c>
-      <c r="L41" t="s">
-        <v>236</v>
-      </c>
-      <c r="M41" t="s">
-        <v>237</v>
+      <c r="B41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>218</v>
+      <c r="B44" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="D45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G46" s="17" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D47" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="G51" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" t="s">
+        <v>142</v>
+      </c>
+      <c r="L51" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="D52" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K52" t="s">
-        <v>144</v>
-      </c>
-      <c r="L52" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>238</v>
+      <c r="M51" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>37</v>
+      <c r="D55" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D56" s="14" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>230</v>
+        <v>162</v>
+      </c>
+      <c r="K56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D57" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K57" t="s">
-        <v>166</v>
+      <c r="B57" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="D58" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K59" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="D61" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D62" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D65" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" t="s">
+        <v>106</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s">
-        <v>107</v>
-      </c>
-      <c r="H67" t="s">
-        <v>108</v>
-      </c>
-      <c r="J67" s="13"/>
-      <c r="K67" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>37</v>
+      <c r="D71" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>230</v>
+        <v>141</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D73" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L73" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>148</v>
+      <c r="B73" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>37</v>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>230</v>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2220,31 +2235,20 @@
     </row>
     <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F81" t="s">
+        <v>230</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" t="s">
-        <v>240</v>
-      </c>
-      <c r="G82" t="s">
-        <v>241</v>
-      </c>
-      <c r="H82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2287,77 +2291,77 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2368,47 +2372,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,32 +2423,32 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,77 +2459,77 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,62 +2540,62 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2602,62 +2606,62 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3302,7 +3306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,54 +3322,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3398,10 +3402,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,11 +3470,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,21 +3505,21 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3527,7 +3531,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3536,10 +3540,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3551,7 +3555,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3560,10 +3564,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3572,89 +3576,89 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>187</v>
-      </c>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3663,10 +3667,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3687,10 +3691,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3699,10 +3703,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3711,10 +3715,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3723,10 +3727,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3735,10 +3739,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3747,10 +3751,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3759,10 +3763,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3771,10 +3775,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3782,55 +3786,55 @@
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>192</v>
-      </c>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3839,10 +3843,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3851,10 +3855,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3863,10 +3867,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3875,55 +3879,31 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G21">
-    <sortCondition ref="G3:G21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G19">
+    <sortCondition ref="G3:G19"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A1667-76C7-4849-8D1D-92E511F3136E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACCE86-C136-45EC-8308-AD71240835C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
   <si>
     <t>setting_name</t>
   </si>
@@ -735,12 +735,6 @@
     <t>&lt;i&gt; Se você tiver qualquer comentário ou observação sobre a mulher, escreva aqui &lt;/i&gt;</t>
   </si>
   <si>
-    <t>Remember to leave a description at someone in the house</t>
-  </si>
-  <si>
-    <t>Lembre-se de deixar uma descrição em alguém da casa</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}} &lt;/b&gt;</t>
   </si>
   <si>
@@ -762,7 +756,19 @@
     <t>scar_mul.jpg</t>
   </si>
   <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "01", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
+    <t>Remember to leave a description with someone in the house</t>
+  </si>
+  <si>
+    <t>Lembre-se de deixar uma descrição com alguém da casa</t>
+  </si>
+  <si>
+    <t>Please examine the upper arms of the woman</t>
+  </si>
+  <si>
+    <t>Por favor, examine os braços da mulher</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "1", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,9 +1314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1395,7 @@
         <v>44</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1514,10 +1520,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1561,10 +1567,10 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1610,13 +1616,13 @@
         <v>114</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P20" s="12" t="b">
         <v>0</v>
@@ -1653,10 +1659,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1678,8 +1684,14 @@
       <c r="K26" t="s">
         <v>225</v>
       </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="s">
+        <v>243</v>
+      </c>
       <c r="R26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1715,10 +1727,10 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1845,10 +1857,10 @@
         <v>216</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1882,10 +1894,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -1931,10 +1943,10 @@
         <v>35</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.25">
@@ -1986,10 +1998,10 @@
         <v>35</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -2094,10 +2106,10 @@
         <v>35</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2149,10 +2161,10 @@
         <v>35</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -2205,10 +2217,10 @@
         <v>35</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,7 +3318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,7 +3378,7 @@
         <v>227</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>138</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACCE86-C136-45EC-8308-AD71240835C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316C308-EED6-4FF5-820C-BE6C52B767C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="246">
   <si>
     <t>setting_name</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "1", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1342,11 @@
     <col min="16" max="16" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1397,14 +1401,17 @@
       <c r="R1" s="26" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1414,8 +1421,11 @@
       <c r="H3" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
@@ -1425,8 +1435,11 @@
       <c r="H4" s="22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
@@ -1436,8 +1449,11 @@
       <c r="H5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1447,8 +1463,11 @@
       <c r="H6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
@@ -1458,8 +1477,11 @@
       <c r="H7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>60</v>
       </c>
@@ -1476,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
@@ -1486,8 +1508,11 @@
       <c r="H9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>60</v>
       </c>
@@ -1504,18 +1529,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
@@ -1525,8 +1550,11 @@
       <c r="H13" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
@@ -1549,18 +1577,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
@@ -1572,8 +1600,11 @@
       <c r="H17" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>51</v>
       </c>
@@ -1592,8 +1623,9 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>67</v>
       </c>
@@ -1602,7 +1634,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1628,19 +1660,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>67</v>
       </c>
@@ -1648,13 +1680,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
@@ -1664,8 +1696,11 @@
       <c r="H25" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>51</v>
       </c>
@@ -1694,17 +1729,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -1712,13 +1747,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="14" t="s">
@@ -1732,8 +1767,11 @@
       <c r="H31" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" t="s">
@@ -1745,8 +1783,11 @@
       <c r="H32" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" t="s">
@@ -1758,8 +1799,11 @@
       <c r="H33" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" t="s">
@@ -1771,8 +1815,11 @@
       <c r="H34" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" t="s">
@@ -1784,8 +1831,11 @@
       <c r="H35" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" t="s">
@@ -1797,8 +1847,11 @@
       <c r="H36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" t="s">
@@ -1810,8 +1863,11 @@
       <c r="H37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" t="s">
@@ -1823,8 +1879,11 @@
       <c r="H38" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" t="s">
@@ -1836,8 +1895,11 @@
       <c r="H39" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>51</v>
       </c>
@@ -1863,17 +1925,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>67</v>
       </c>
@@ -1881,12 +1943,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="D45" s="14" t="s">
         <v>35</v>
@@ -1899,8 +1961,11 @@
       <c r="H45" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S45" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
         <v>51</v>
       </c>
@@ -1920,12 +1985,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>67</v>
       </c>
@@ -1933,12 +1998,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
@@ -1948,8 +2013,11 @@
       <c r="H50" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="S50" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
         <v>51</v>
       </c>
@@ -1975,12 +2043,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
@@ -1988,12 +2056,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D55" s="14" t="s">
         <v>35</v>
       </c>
@@ -2003,8 +2071,11 @@
       <c r="H55" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S55" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D56" s="14" t="s">
         <v>51</v>
       </c>
@@ -2024,7 +2095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>67</v>
       </c>
@@ -2032,7 +2103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
         <v>51</v>
       </c>
@@ -2052,12 +2123,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>67</v>
       </c>
@@ -2065,7 +2136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D61" s="14" t="s">
         <v>51</v>
       </c>
@@ -2085,23 +2156,23 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D65" s="14" t="s">
         <v>35</v>
       </c>
@@ -2111,8 +2182,11 @@
       <c r="H65" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>51</v>
       </c>
@@ -2133,17 +2207,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>67</v>
       </c>
@@ -2151,12 +2225,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D71" s="14" t="s">
         <v>35</v>
       </c>
@@ -2166,8 +2240,11 @@
       <c r="H71" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="S71" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
         <v>128</v>
       </c>
@@ -2187,32 +2264,32 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>35</v>
       </c>
@@ -2222,8 +2299,11 @@
       <c r="H78" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S78" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>35</v>
       </c>
@@ -2233,8 +2313,11 @@
       <c r="H79" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S79" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>35</v>
       </c>
@@ -2243,6 +2326,9 @@
       </c>
       <c r="H80" t="s">
         <v>119</v>
+      </c>
+      <c r="S80" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316C308-EED6-4FF5-820C-BE6C52B767C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACCB6A3-114D-486C-B9C9-82F1F108ED23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="255">
   <si>
     <t>setting_name</t>
   </si>
@@ -306,24 +306,15 @@
     <t>ESTADOGRAV</t>
   </si>
   <si>
-    <t>Pregnancy ended</t>
-  </si>
-  <si>
     <t>Still pregnant</t>
   </si>
   <si>
     <t>Not pregnant anyway</t>
   </si>
   <si>
-    <t>Gravidez encerrada</t>
-  </si>
-  <si>
     <t>Ainda grávida</t>
   </si>
   <si>
-    <t>Não grávida de qualquer maneira</t>
-  </si>
-  <si>
     <t>data("ESTADOGRAV") == "1"</t>
   </si>
   <si>
@@ -546,9 +537,6 @@
     <t>Did the women go directly to this tabanca after giving birth?</t>
   </si>
   <si>
-    <t>As mulheres foram diretamente para esta tabanca após o parto?</t>
-  </si>
-  <si>
     <t>data("NVNMAB") == "1" &amp;&amp; (data("PARTAB") == "1" || data("PARHCHOSP") == "1")</t>
   </si>
   <si>
@@ -624,48 +612,12 @@
     <t>Explicação do estudo:</t>
   </si>
   <si>
-    <t>Bandim Health Project is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to follow your pregnancy until the moment of delivery and your child within the first months.</t>
-  </si>
-  <si>
-    <t>O Projeto Saúde Bandim está realizando um estudo de acompanhamento sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez até o momento do parto e seu filho nos primeiros meses.</t>
-  </si>
-  <si>
     <t>This study is to assess the effects of how vaccines are provided at the health centers.</t>
   </si>
   <si>
     <t>O objetivo deste estudo é avaliar os efeitos de como as vacinas são fornecidas nos centros de saúde.</t>
   </si>
   <si>
-    <t>All information collected here will be used for the study only and will be kept confidential.</t>
-  </si>
-  <si>
-    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas em sigilo.</t>
-  </si>
-  <si>
-    <t>If you do not want to participate, you and your child will continue to be treated in the same way as others who have accepted.</t>
-  </si>
-  <si>
-    <t>Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram.</t>
-  </si>
-  <si>
-    <t>If you accept now and later do not want to continue, you can withdraw your consent.</t>
-  </si>
-  <si>
-    <t>Se você aceitar agora e depois não quiser continuar, pode retirar seu consentimento.</t>
-  </si>
-  <si>
-    <t>If you have any questions about this work later, you can contact us by phone: 96016462/955946796</t>
-  </si>
-  <si>
-    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 96016462/955946796</t>
-  </si>
-  <si>
-    <t>Do you have any questions now?</t>
-  </si>
-  <si>
-    <t>Você tem alguma pergunta agora?</t>
-  </si>
-  <si>
     <t>YesNo</t>
   </si>
   <si>
@@ -720,12 +672,6 @@
     <t>[data('IDMUL')]</t>
   </si>
   <si>
-    <t>Nado morto: após 6 meses de gravidez &lt;/br&gt; Aborto espontâneo: antes de 6 meses de gravidez</t>
-  </si>
-  <si>
-    <t>Still birth: after 6 months of pregnancy &lt;/br&gt; Miscarriage: before 6 months of pregnancy</t>
-  </si>
-  <si>
     <t>OBSMUL</t>
   </si>
   <si>
@@ -768,10 +714,91 @@
     <t>Por favor, examine os braços da mulher</t>
   </si>
   <si>
-    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "1", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM")}</t>
-  </si>
-  <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Bandim Health Project&lt;/b&gt; is carrying out a follow-up study on the health and survival of children in Oio, Biombo and Farim. Therefore, we would like to &lt;b&gt;follow your pregnancy&lt;/b&gt; until the moment of delivery and your child within the first months.</t>
+  </si>
+  <si>
+    <t>All information collected here will be used for the study only and will be kept &lt;b&gt;confidential&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Do you have any questions now?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Você tem alguma pergunta agora?&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>mor_linked</t>
+  </si>
+  <si>
+    <t>Number of woman or person in the household</t>
+  </si>
+  <si>
+    <t>Número de telefone de mulher ou pessoa na casa</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>{REG: data("REG"), REGNOME: data("REGNOME"), HCAREA: data("HCAREA"), HCAREANOME: data("HCAREANOME"), TAB: data("TAB"), TABNOME: data("TABNOME"), MOR: data("MOR"), GRAV: data("GRAV"), IDMUL: data("IDMUL"), REGDIA: data("REGDIA"), NOMEMUL: data("NOMEMUL"), DATASEG: data("DATASEG"), VISNOCRI: "1", IDCRI: data("IDMUL") + "1", ESTADOMUL: data("ESTADOMUL"), DATASAIMUL: data("DATASAIMUL"), GEM: data("GEM"), TELE: data("TELE")}</t>
+  </si>
+  <si>
+    <t>ESCONIVEL</t>
+  </si>
+  <si>
+    <t>Deu à luz</t>
+  </si>
+  <si>
+    <t>Gave birth</t>
+  </si>
+  <si>
+    <t>Nom era um gravidez</t>
+  </si>
+  <si>
+    <t>Stillbirth: after 6 months of pregnancy &lt;/br&gt; Miscarriage: before 6 months of pregnancy</t>
+  </si>
+  <si>
+    <t>Nado morto: após 6 meses de gravidez &lt;/br&gt; Aborto: antes de 6 meses de gravidez</t>
+  </si>
+  <si>
+    <t>A mulher foi diretamente para esta tabanca após o parto?</t>
+  </si>
+  <si>
+    <t>O &lt;b&gt;Projeto Saúde Bandim&lt;/b&gt; está realizando um estudo sobre a saúde e sobrevivência das crianças de Oio, Biombo e Farim. Portanto, gostaríamos de acompanhar sua gravidez e seu filho nos primeiros meses.</t>
+  </si>
+  <si>
+    <t>Todas as informações coletadas aqui serão usadas apenas para o estudo e serão mantidas  &lt;b&gt;confidenciais&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>If you do not want to participate, &lt;b&gt;you and your child will continue to be treated in the same way as others&lt;/b&gt; who have accepted. If you accept now and later do not want to continue, &lt;b&gt;you can withdraw&lt;/b&gt; your consent.</t>
+  </si>
+  <si>
+    <t>A participação neste estudo é &lt;b&gt;voluntário&lt;/b&gt;. Se você não quiser participar, você e seu filho continuarão a ser tratados da mesma forma que os outros que o aceitaram. Se você aceitar agora e depois não quiser continuar, você pode retirar seu consentimento a qualquer momento.</t>
+  </si>
+  <si>
+    <t>Se você tiver alguma dúvida sobre este trabalho posteriormente, pode entrar em contato conosco pelo telefone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>If you have any questions about this work later, you can contact us by phone: 969006817 / 956701084.</t>
+  </si>
+  <si>
+    <t>(data("TELE")&gt;100000000 &amp;&amp; data("TELE")&lt;1000000000) || data("TELE") == 999</t>
+  </si>
+  <si>
+    <t>If it is not possible to get a phone number write "999"</t>
+  </si>
+  <si>
+    <t>Se não for possível obter um número de telefone escreva "999"</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Consent is not given and the interview will end. Please press back, if this is a mistake. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; O consentimento não é dado e a entrevista será encerrada. Por favor, pressione "Atrás", se isso for um erro. &lt;/font&gt;</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,10 +1325,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1315,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,10 +1426,10 @@
         <v>44</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1416,10 +1443,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S3" s="12" t="b">
         <v>1</v>
@@ -1430,10 +1457,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S4" s="12" t="b">
         <v>1</v>
@@ -1444,10 +1471,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S5" s="12" t="b">
         <v>1</v>
@@ -1458,10 +1485,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="S6" s="12" t="b">
         <v>1</v>
@@ -1472,10 +1499,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S7" s="12" t="b">
         <v>1</v>
@@ -1503,10 +1530,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S9" s="12" t="b">
         <v>1</v>
@@ -1517,271 +1544,284 @@
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J10" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="S13" s="12" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="13" t="b">
+      <c r="J15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="13" t="b">
+      <c r="K15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="S17" s="12" t="b">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S18" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="N20" t="s">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s">
-        <v>236</v>
-      </c>
-      <c r="P20" s="12" t="b">
+      <c r="F21" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S26" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="S25" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="M27" t="s">
         <v>225</v>
       </c>
-      <c r="L26" t="s">
-        <v>242</v>
-      </c>
-      <c r="M26" t="s">
-        <v>243</v>
-      </c>
-      <c r="R26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>38</v>
+      <c r="R27" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="S31" s="12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" t="s">
+      <c r="D32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G32" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" t="s">
-        <v>195</v>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="S32" s="12" t="b">
         <v>1</v>
@@ -1794,10 +1834,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S33" s="12" t="b">
         <v>1</v>
@@ -1810,10 +1850,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="S34" s="12" t="b">
         <v>1</v>
@@ -1826,10 +1866,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="S35" s="12" t="b">
         <v>1</v>
@@ -1842,10 +1882,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="S36" s="12" t="b">
         <v>1</v>
@@ -1858,10 +1898,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="S37" s="12" t="b">
         <v>1</v>
@@ -1874,10 +1914,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="S38" s="12" t="b">
         <v>1</v>
@@ -1890,10 +1930,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="S39" s="12" t="b">
         <v>1</v>
@@ -1904,25 +1944,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="M40" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1940,7 +1980,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,10 +1996,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="S45" s="12" t="b">
         <v>1</v>
@@ -1970,7 +2010,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>89</v>
@@ -1982,7 +2022,7 @@
         <v>88</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1995,7 +2035,7 @@
         <v>67</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
@@ -2008,10 +2048,10 @@
         <v>35</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="S50" s="12" t="b">
         <v>1</v>
@@ -2022,25 +2062,25 @@
         <v>51</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
@@ -2053,7 +2093,7 @@
         <v>67</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,10 +2106,10 @@
         <v>35</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="S55" s="12" t="b">
         <v>1</v>
@@ -2080,19 +2120,19 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G56" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" t="s">
         <v>161</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K56" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
@@ -2100,7 +2140,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
@@ -2111,16 +2151,16 @@
         <v>53</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H58" s="13" t="s">
+      <c r="K58" t="s">
         <v>168</v>
-      </c>
-      <c r="K58" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
@@ -2133,7 +2173,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
@@ -2144,16 +2184,16 @@
         <v>53</v>
       </c>
       <c r="F61" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G61" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="H61" s="13" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
@@ -2177,10 +2217,10 @@
         <v>35</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="S65" s="12" t="b">
         <v>1</v>
@@ -2197,14 +2237,14 @@
         <v>75</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
@@ -2222,7 +2262,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
@@ -2235,10 +2275,10 @@
         <v>35</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="S71" s="12" t="b">
         <v>1</v>
@@ -2246,22 +2286,22 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
@@ -2279,9 +2319,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>68</v>
+    <row r="76" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2294,13 +2334,10 @@
         <v>35</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="S78" s="12" t="b">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2308,45 +2345,85 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="H79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S83" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
+      <c r="H84" t="s">
+        <v>114</v>
+      </c>
+      <c r="S84" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H85" t="s">
         <v>116</v>
       </c>
-      <c r="H79" t="s">
-        <v>117</v>
-      </c>
-      <c r="S79" s="12" t="b">
+      <c r="S85" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" t="s">
-        <v>119</v>
-      </c>
-      <c r="S80" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="86" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>60</v>
       </c>
-      <c r="F81" t="s">
-        <v>230</v>
-      </c>
-      <c r="G81" t="s">
-        <v>231</v>
-      </c>
-      <c r="H81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="F86" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" t="s">
+        <v>213</v>
+      </c>
+      <c r="H86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2361,8 +2438,8 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2466,7 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2404,7 +2481,7 @@
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="str">
         <f>"4"</f>
@@ -2419,7 +2496,7 @@
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" t="str">
         <f>"5"</f>
@@ -2434,7 +2511,7 @@
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
@@ -2449,7 +2526,7 @@
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
@@ -2521,7 +2598,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
@@ -2536,7 +2613,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
@@ -2557,67 +2634,67 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"33"</f>
@@ -2638,52 +2715,52 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>"33"</f>
@@ -2704,52 +2781,52 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B29" t="str">
         <f>"33"</f>
@@ -3404,7 +3481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,54 +3497,54 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3500,10 +3577,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,19 +3645,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
@@ -3609,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,7 +3699,6 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3634,7 +3710,6 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3646,7 +3721,6 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3658,7 +3732,6 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3670,11 +3743,10 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -3682,11 +3754,10 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -3697,7 +3768,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -3705,91 +3776,79 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -3797,23 +3856,21 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -3821,11 +3878,10 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -3833,35 +3889,32 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -3869,11 +3922,10 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3881,67 +3933,57 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -3949,11 +3991,10 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -3961,11 +4002,10 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
@@ -3973,31 +4013,61 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="b">
+      <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="b">
+      <c r="C38" t="b">
         <v>1</v>
       </c>
-      <c r="D35"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G19">

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACCB6A3-114D-486C-B9C9-82F1F108ED23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5EADE-5224-4162-925D-D5A9D89C00D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="258">
   <si>
     <t>setting_name</t>
   </si>
@@ -799,6 +799,15 @@
   </si>
   <si>
     <t>&lt;font color = "red"&gt; O consentimento não é dado e a entrevista será encerrada. Por favor, pressione "Atrás", se isso for um erro. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Have scar, uncertain if BCG</t>
+  </si>
+  <si>
+    <t>Tem cicatriz, não tenho certeza se BCG</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1770,7 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
         <v>206</v>
@@ -2435,18 +2444,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2597,314 +2606,350 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="13" t="str">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="13" t="str">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="13" t="str">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="13" t="str">
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B22" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B23" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B24" s="13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B26" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="13" t="str">
+      <c r="B27" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="13" t="str">
+      <c r="B28" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B29" s="12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>152</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>157</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>152</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B32" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>152</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B33" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B34" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
@@ -2914,69 +2959,69 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
@@ -2997,52 +3042,52 @@
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
@@ -3148,62 +3193,62 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="19"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="19"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="19"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="19"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="19"/>
-      <c r="C90" s="15"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,7 +3266,7 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="15"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,25 +3277,25 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="15"/>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="15"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="15"/>
       <c r="D98" s="14"/>
     </row>
@@ -3262,7 +3307,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="15"/>
       <c r="D100" s="14"/>
     </row>
@@ -3280,19 +3325,19 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="15"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="15"/>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="15"/>
       <c r="D105" s="14"/>
     </row>
@@ -3304,13 +3349,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="15"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="15"/>
       <c r="D108" s="14"/>
     </row>
@@ -3323,18 +3368,18 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="15"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="15"/>
       <c r="D112" s="14"/>
     </row>
@@ -3353,7 +3398,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="15"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,51 +3422,56 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="14"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
-      <c r="C120" s="14"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="19"/>
-      <c r="C121" s="14"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
-      <c r="C124"/>
-      <c r="D124"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
-      <c r="C125"/>
-      <c r="D125"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
-      <c r="C126"/>
-      <c r="D126"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-      <c r="C127"/>
-      <c r="D127"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-      <c r="C128"/>
-      <c r="D128"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
@@ -3467,6 +3517,31 @@
       <c r="B137" s="7"/>
       <c r="C137"/>
       <c r="D137"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138"/>
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="7"/>
+      <c r="C139"/>
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140"/>
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141"/>
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142"/>
+      <c r="D142"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5EADE-5224-4162-925D-D5A9D89C00D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD77E81-E920-46A2-A90E-ECF320621020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="289">
   <si>
     <t>setting_name</t>
   </si>
@@ -808,6 +808,110 @@
   </si>
   <si>
     <t>Tem cicatriz, não tenho certeza se BCG</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data("REG")</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>reg_csv</t>
+  </si>
+  <si>
+    <t>regpar</t>
+  </si>
+  <si>
+    <t>hc_csv</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>LOCPAROU</t>
+  </si>
+  <si>
+    <t>NotOnList</t>
+  </si>
+  <si>
+    <t>Other place</t>
+  </si>
+  <si>
+    <t>Outro lugar</t>
+  </si>
+  <si>
+    <t>LOCPARCODE</t>
+  </si>
+  <si>
+    <t>locparcodens</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>data("locparcodens")</t>
+  </si>
+  <si>
+    <t>data("LOCPARCODE") != null || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>"HEALTHCENTRES.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(x) {
+return x.reg
+})
+.map(function(place){
+return {
+data_value:place.reg,
+display:{title: {text: place.regname} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){place.data_value = place.cscode;
+place.display = {title: {text: place.csname} };
+return place;
+})</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>choice_item.reg === data("regpar")</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>data("locparcodens") != null</t>
+  </si>
+  <si>
+    <t>data("locparcodens") == "8888"</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>data("LOCPAROU") != null || data("locparcodens") != "8888" || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1022,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -954,6 +1058,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1241,7 +1348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,11 +1458,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1489,7 @@
     <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1440,14 +1547,17 @@
       <c r="S1" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
@@ -1489,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>60</v>
       </c>
@@ -1565,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>60</v>
       </c>
@@ -1594,18 +1704,18 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2206,233 +2316,414 @@
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>68</v>
+      <c r="D62" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="s">
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D67" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G67" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H67" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S65" s="12" t="b">
+      <c r="S67" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" t="s">
+        <v>263</v>
+      </c>
+      <c r="F69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" t="s">
+        <v>270</v>
+      </c>
+      <c r="S70" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" t="s">
+        <v>286</v>
+      </c>
+      <c r="H73" t="s">
+        <v>287</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" s="13"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>273</v>
+      </c>
+      <c r="S75" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D80" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S80" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>51</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E81" t="s">
         <v>53</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F81" t="s">
         <v>75</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G81" t="s">
         <v>102</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H81" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="13"/>
-      <c r="K66" t="s">
+      <c r="J81" s="13"/>
+      <c r="K81" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="s">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D86" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G86" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H86" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S71" s="12" t="b">
+      <c r="S86" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D72" s="14" t="s">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G87" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H87" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L72" s="13" t="s">
+      <c r="L87" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M72" s="13" t="s">
+      <c r="M87" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="91" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="92" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+    <row r="93" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H93" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+    <row r="94" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>35</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G94" t="s">
         <v>253</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H94" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="95" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="13" t="s">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="97" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="98" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G98" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H98" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S83" s="12" t="b">
+      <c r="S98" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
+    <row r="99" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>35</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G99" t="s">
         <v>113</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H99" t="s">
         <v>114</v>
       </c>
-      <c r="S84" s="12" t="b">
+      <c r="S99" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
+    <row r="100" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>35</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G100" t="s">
         <v>115</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H100" t="s">
         <v>116</v>
       </c>
-      <c r="S85" s="12" t="b">
+      <c r="S100" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    <row r="101" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>60</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F101" t="s">
         <v>212</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G101" t="s">
         <v>213</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H101" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="102" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2446,9 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,16 +3212,34 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
@@ -3552,11 +3861,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D054B58-2EEB-4F35-83A7-A789873676A2}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,11 +3875,14 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -3595,30 +3907,77 @@
       <c r="H1" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="I1" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
         <v>210</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H5" s="24" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3720,11 +4079,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -4089,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -4100,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -4111,36 +4470,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>207</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>197</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="b">
+      <c r="C42" t="b">
         <v>1</v>
       </c>
     </row>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD77E81-E920-46A2-A90E-ECF320621020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D709-CF46-4A5C-9C21-452BAF43A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -498,12 +498,6 @@
     <t>Hospital</t>
   </si>
   <si>
-    <t>Centro de Saúde</t>
-  </si>
-  <si>
-    <t>Health centre</t>
-  </si>
-  <si>
     <t>Casa</t>
   </si>
   <si>
@@ -751,9 +745,6 @@
   </si>
   <si>
     <t>Gave birth</t>
-  </si>
-  <si>
-    <t>Nom era um gravidez</t>
   </si>
   <si>
     <t>Stillbirth: after 6 months of pregnancy &lt;/br&gt; Miscarriage: before 6 months of pregnancy</t>
@@ -912,6 +903,15 @@
   </si>
   <si>
     <t>data("LOCPAROU") != null || data("locparcodens") != "8888" || (data("LOCPAR") != 2 &amp;&amp; data("LOCPAR") != 3)</t>
+  </si>
+  <si>
+    <t>Health centre / Clinic</t>
+  </si>
+  <si>
+    <t>Centro de Saúde / Clínica</t>
+  </si>
+  <si>
+    <t>Nâo era uma gravidez</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S5" s="12" t="b">
         <v>1</v>
@@ -1604,10 +1604,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S6" s="12" t="b">
         <v>1</v>
@@ -1618,10 +1618,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S7" s="12" t="b">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
@@ -1680,28 +1680,28 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S14" s="12" t="b">
         <v>1</v>
@@ -1770,10 +1770,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S18" s="12" t="b">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>112</v>
@@ -1823,13 +1823,13 @@
         <v>111</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1866,10 +1866,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S26" s="12" t="b">
         <v>1</v>
@@ -1880,10 +1880,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
         <v>100</v>
@@ -1892,16 +1892,16 @@
         <v>101</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1937,10 +1937,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S32" s="12" t="b">
         <v>1</v>
@@ -1953,10 +1953,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S33" s="12" t="b">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S34" s="12" t="b">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S35" s="12" t="b">
         <v>1</v>
@@ -2001,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S36" s="12" t="b">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S37" s="12" t="b">
         <v>1</v>
@@ -2033,10 +2033,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S38" s="12" t="b">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S39" s="12" t="b">
         <v>1</v>
@@ -2063,25 +2063,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2115,10 +2115,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S45" s="12" t="b">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>88</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2167,10 +2167,10 @@
         <v>35</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S50" s="12" t="b">
         <v>1</v>
@@ -2196,10 +2196,10 @@
         <v>139</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
@@ -2225,10 +2225,10 @@
         <v>35</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S55" s="12" t="b">
         <v>1</v>
@@ -2245,13 +2245,13 @@
         <v>151</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H56" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" t="s">
         <v>159</v>
-      </c>
-      <c r="K56" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
@@ -2270,16 +2270,16 @@
         <v>53</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>164</v>
-      </c>
       <c r="H58" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
@@ -2303,28 +2303,28 @@
         <v>53</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
@@ -2355,10 +2355,10 @@
         <v>35</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S67" s="12" t="b">
         <v>1</v>
@@ -2366,53 +2366,53 @@
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" t="s">
         <v>260</v>
       </c>
-      <c r="E69" t="s">
-        <v>263</v>
-      </c>
       <c r="F69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S70" s="13" t="b">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2437,7 +2437,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2453,16 +2453,16 @@
         <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G73" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H73" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S75" s="13" t="b">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>35</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S80" s="12" t="b">
         <v>1</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>67</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
@@ -2575,10 +2575,10 @@
         <v>35</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S86" s="12" t="b">
         <v>1</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="91" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
         <v>35</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2671,10 +2671,10 @@
         <v>35</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S98" s="12" t="b">
         <v>1</v>
@@ -2713,13 +2713,13 @@
         <v>60</v>
       </c>
       <c r="F101" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" t="s">
         <v>212</v>
-      </c>
-      <c r="G101" t="s">
-        <v>213</v>
-      </c>
-      <c r="H101" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="102" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,9 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" t="str">
         <f>"1"</f>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" t="str">
         <f>"2"</f>
@@ -2928,22 +2928,22 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B14" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B15" t="str">
         <f>"33"</f>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"1"</f>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"2"</f>
@@ -3007,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,22 +3213,22 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B36" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B37" t="str">
         <f>"9999"</f>
@@ -3908,41 +3908,41 @@
         <v>134</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="J3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -3969,13 +3969,13 @@
         <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>135</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00D709-CF46-4A5C-9C21-452BAF43A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796EA15-BFD3-4E9C-A426-EC57FDAEF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>Scar</t>
   </si>
   <si>
-    <t>Have scar, uncertain if BCG</t>
-  </si>
-  <si>
     <t>Tem cicatriz, não tenho certeza se BCG</t>
   </si>
   <si>
@@ -912,6 +909,9 @@
   </si>
   <si>
     <t>Nâo era uma gravidez</t>
+  </si>
+  <si>
+    <t>Has scar, uncertain if BCG</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1548,7 @@
         <v>224</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2317,14 +2317,14 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
@@ -2366,30 +2366,30 @@
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" t="s">
         <v>257</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>258</v>
       </c>
-      <c r="F68" t="s">
-        <v>259</v>
-      </c>
       <c r="G68" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>156</v>
@@ -2398,21 +2398,21 @@
         <v>157</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S70" s="13" t="b">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2437,7 +2437,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2453,16 +2453,16 @@
         <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G73" t="s">
+        <v>282</v>
+      </c>
+      <c r="H73" t="s">
         <v>283</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S75" s="13" t="b">
         <v>1</v>
@@ -2737,9 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
         <v>286</v>
-      </c>
-      <c r="D32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,22 +3213,22 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" t="s">
         <v>264</v>
-      </c>
-      <c r="D36" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" t="str">
         <f>"9999"</f>
@@ -3863,9 +3863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D054B58-2EEB-4F35-83A7-A789873676A2}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,41 +3908,41 @@
         <v>134</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" t="s">
         <v>272</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" t="s">
         <v>272</v>
       </c>
-      <c r="J3" t="s">
-        <v>273</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4082,8 +4082,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D42"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796EA15-BFD3-4E9C-A426-EC57FDAEF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D782824-6E0B-4B67-A32C-4EEBC282C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,12 +510,6 @@
     <t>Local de nascimento</t>
   </si>
   <si>
-    <t>data("GEM") != null || data("ESTADOGRAV") != 1 || data("NVNNAM") == 3</t>
-  </si>
-  <si>
-    <t>data("LOCPAR") != null || data("ESTADOGRAV") != 1 || data("NVNNAM") == 3</t>
-  </si>
-  <si>
     <t>PARTAB</t>
   </si>
   <si>
@@ -912,6 +906,12 @@
   </si>
   <si>
     <t>Has scar, uncertain if BCG</t>
+  </si>
+  <si>
+    <t>data("LOCPAR") != null || data("ESTADOGRAV") != 1 || data("NVNMAB") == 3</t>
+  </si>
+  <si>
+    <t>data("GEM") != null || data("ESTADOGRAV") != 1 || data("NVNMAB") == 3</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1461,8 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S5" s="12" t="b">
         <v>1</v>
@@ -1604,10 +1604,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S6" s="12" t="b">
         <v>1</v>
@@ -1618,10 +1618,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S7" s="12" t="b">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
         <v>121</v>
@@ -1680,28 +1680,28 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" t="s">
         <v>246</v>
       </c>
-      <c r="L11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M11" t="s">
-        <v>248</v>
-      </c>
       <c r="Q11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S14" s="12" t="b">
         <v>1</v>
@@ -1770,10 +1770,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S18" s="12" t="b">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>112</v>
@@ -1823,13 +1823,13 @@
         <v>111</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P21" s="12" t="b">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1866,10 +1866,10 @@
         <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S26" s="12" t="b">
         <v>1</v>
@@ -1880,10 +1880,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
         <v>100</v>
@@ -1892,16 +1892,16 @@
         <v>101</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1937,10 +1937,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S32" s="12" t="b">
         <v>1</v>
@@ -1953,10 +1953,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S33" s="12" t="b">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S34" s="12" t="b">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S35" s="12" t="b">
         <v>1</v>
@@ -2001,10 +2001,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S36" s="12" t="b">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S37" s="12" t="b">
         <v>1</v>
@@ -2033,10 +2033,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S38" s="12" t="b">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S39" s="12" t="b">
         <v>1</v>
@@ -2063,25 +2063,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2115,10 +2115,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S45" s="12" t="b">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>88</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2167,10 +2167,10 @@
         <v>35</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S50" s="12" t="b">
         <v>1</v>
@@ -2196,10 +2196,10 @@
         <v>139</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
@@ -2225,10 +2225,10 @@
         <v>35</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S55" s="12" t="b">
         <v>1</v>
@@ -2251,7 +2251,7 @@
         <v>157</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
@@ -2270,16 +2270,16 @@
         <v>53</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="H58" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
@@ -2303,28 +2303,28 @@
         <v>53</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
@@ -2355,10 +2355,10 @@
         <v>35</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S67" s="12" t="b">
         <v>1</v>
@@ -2366,30 +2366,30 @@
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" t="s">
         <v>256</v>
       </c>
-      <c r="E68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" t="s">
-        <v>258</v>
-      </c>
       <c r="G68" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>156</v>
@@ -2398,21 +2398,21 @@
         <v>157</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" t="s">
         <v>260</v>
       </c>
-      <c r="E70" t="s">
-        <v>262</v>
-      </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S70" s="13" t="b">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2437,7 +2437,7 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2453,16 +2453,16 @@
         <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G73" t="s">
+        <v>280</v>
+      </c>
+      <c r="H73" t="s">
+        <v>281</v>
+      </c>
+      <c r="K73" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="H73" t="s">
-        <v>283</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S75" s="13" t="b">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>35</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S80" s="12" t="b">
         <v>1</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="J81" s="13"/>
       <c r="K81" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>67</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
@@ -2575,10 +2575,10 @@
         <v>35</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S86" s="12" t="b">
         <v>1</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="91" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
         <v>35</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2671,10 +2671,10 @@
         <v>35</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S98" s="12" t="b">
         <v>1</v>
@@ -2713,13 +2713,13 @@
         <v>60</v>
       </c>
       <c r="F101" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
         <v>210</v>
-      </c>
-      <c r="G101" t="s">
-        <v>211</v>
-      </c>
-      <c r="H101" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="102" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" t="str">
         <f>"1"</f>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" t="str">
         <f>"2"</f>
@@ -2928,22 +2928,22 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B14" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" t="str">
         <f>"33"</f>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"1"</f>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"2"</f>
@@ -3007,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,22 +3213,22 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" t="str">
         <f>"9999"</f>
@@ -3908,41 +3908,41 @@
         <v>134</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="J2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -3969,13 +3969,13 @@
         <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>135</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -4472,10 +4472,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D782824-6E0B-4B67-A32C-4EEBC282C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0ADDDC-B9CF-49E7-8C70-A5DE099F8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="292">
   <si>
     <t>setting_name</t>
   </si>
@@ -912,6 +912,15 @@
   </si>
   <si>
     <t>data("GEM") != null || data("ESTADOGRAV") != 1 || data("NVNMAB") == 3</t>
+  </si>
+  <si>
+    <t>PlaceOfBirthReturn</t>
+  </si>
+  <si>
+    <t>Woman is still at the centre/hospital</t>
+  </si>
+  <si>
+    <t>Mulher ainda está no centro/hospital</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2309,7 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>159</v>
@@ -2735,16 +2744,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="3" bestFit="1" customWidth="1"/>
@@ -3213,82 +3222,118 @@
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>260</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B41" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>261</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="42" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>260</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B42" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
@@ -3298,69 +3343,69 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
@@ -3381,52 +3426,52 @@
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
@@ -3532,62 +3577,62 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="14"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="14"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="19"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="19"/>
-      <c r="C92" s="15"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="15"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="15"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3650,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="19"/>
-      <c r="C98" s="15"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,25 +3661,25 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="15"/>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="15"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="15"/>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="15"/>
       <c r="D103" s="14"/>
     </row>
@@ -3646,7 +3691,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="15"/>
       <c r="D105" s="14"/>
     </row>
@@ -3664,19 +3709,19 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="15"/>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="15"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="15"/>
       <c r="D110" s="14"/>
     </row>
@@ -3688,13 +3733,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="15"/>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="15"/>
       <c r="D113" s="14"/>
     </row>
@@ -3707,18 +3752,18 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
     </row>
@@ -3737,7 +3782,7 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
-      <c r="C120" s="15"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,96 +3806,126 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
-      <c r="C125" s="14"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="19"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
-      <c r="C129"/>
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
-      <c r="C130"/>
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="7"/>
-      <c r="C131"/>
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-      <c r="C132"/>
-      <c r="D132"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
-      <c r="C133"/>
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134"/>
       <c r="D134"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135"/>
       <c r="D135"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136"/>
       <c r="D136"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="C137"/>
       <c r="D137"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138"/>
       <c r="D138"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139"/>
       <c r="D139"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140"/>
       <c r="D140"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141"/>
       <c r="D141"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142"/>
       <c r="D142"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143"/>
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144"/>
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="7"/>
+      <c r="C145"/>
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="7"/>
+      <c r="C146"/>
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="7"/>
+      <c r="C147"/>
+      <c r="D147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
+++ b/app/config/tables/PREGNANCIES/Forms/PREGNANCYFU/PREGNANCYFU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0ADDDC-B9CF-49E7-8C70-A5DE099F8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA449999-8040-4A47-93E5-50B0CB532236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="294">
   <si>
     <t>setting_name</t>
   </si>
@@ -921,6 +921,12 @@
   </si>
   <si>
     <t>Mulher ainda está no centro/hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At which health centre/clinic/hospital did the woman give birth? </t>
+  </si>
+  <si>
+    <t>Em que centro de saúde/clínica/hospital a mulher deu à luz?</t>
   </si>
 </sst>
 </file>
@@ -1467,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,79 +2380,77 @@
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>254</v>
-      </c>
-      <c r="E68" t="s">
-        <v>255</v>
-      </c>
-      <c r="F68" t="s">
-        <v>256</v>
+      <c r="D68" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>266</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="S68" s="12"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>258</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>260</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>264</v>
       </c>
-      <c r="S70" s="13" t="b">
+      <c r="S71" s="13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2456,171 +2460,180 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73" s="13" t="s">
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>259</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>280</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>281</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="K74" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>68</v>
       </c>
-      <c r="C74"/>
-      <c r="D74" s="13"/>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C75"/>
-      <c r="D75" t="s">
+      <c r="D75" s="13"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C76"/>
+      <c r="D76" t="s">
         <v>252</v>
       </c>
-      <c r="E75"/>
-      <c r="F75" t="s">
+      <c r="E76"/>
+      <c r="F76" t="s">
         <v>263</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75" t="s">
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76" t="s">
         <v>267</v>
       </c>
-      <c r="S75" s="13" t="b">
+      <c r="S76" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G81" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H81" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="S80" s="12" t="b">
+      <c r="S81" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="82" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>51</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>53</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>75</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>102</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>103</v>
       </c>
-      <c r="J81" s="13"/>
-      <c r="K81" t="s">
+      <c r="J82" s="13"/>
+      <c r="K82" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D86" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="S86" s="12" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D87" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="S87" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D88" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E88" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G88" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H88" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L87" s="13" t="s">
+      <c r="L88" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M87" s="13" t="s">
+      <c r="M88" s="13" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
@@ -2628,76 +2641,67 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>247</v>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="94" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>35</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
         <v>248</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H95" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="96" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="98" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="S98" s="12" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>35</v>
       </c>
-      <c r="G99" t="s">
-        <v>113</v>
-      </c>
-      <c r="H99" t="s">
-        <v>114</v>
+      <c r="G99" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="S99" s="12" t="b">
         <v>1</v>
@@ -2708,10 +2712,10 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S100" s="12" t="b">
         <v>1</v>
@@ -2719,20 +2723,34 @@
     </row>
     <row r="101" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" t="s">
+        <v>116</v>
+      </c>
+      <c r="S101" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>60</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>208</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>209</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="103" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2746,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
